--- a/sentimentdataset.xlsx
+++ b/sentimentdataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayapratha\Desktop\social\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayapratha\Desktop\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6361FA6-CF59-4B17-896D-BF2CBFDDDC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7A7EA9-940F-41BF-877A-205185734A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="795" windowWidth="15375" windowHeight="7785" xr2:uid="{CDB60075-D62A-448C-AC18-AB59A42C11D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CDB60075-D62A-448C-AC18-AB59A42C11D8}"/>
   </bookViews>
   <sheets>
     <sheet name="sentimentdataset" sheetId="1" r:id="rId1"/>
@@ -8366,9 +8366,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CFE011-03C7-4B33-B96C-74977BD50F7B}">
   <dimension ref="A1:O733"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C113" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -13551,7 +13556,7 @@
         <v>403</v>
       </c>
       <c r="E111" s="1">
-        <v>40313.645833333336</v>
+        <v>45427.645833333336</v>
       </c>
       <c r="F111" t="s">
         <v>404</v>
@@ -13572,7 +13577,7 @@
         <v>79</v>
       </c>
       <c r="L111">
-        <v>2010</v>
+        <v>2024</v>
       </c>
       <c r="M111">
         <v>5</v>
@@ -13645,7 +13650,7 @@
         <v>411</v>
       </c>
       <c r="E113" s="1">
-        <v>40714.614583333336</v>
+        <v>45463.614583333336</v>
       </c>
       <c r="F113" t="s">
         <v>412</v>
@@ -13666,7 +13671,7 @@
         <v>414</v>
       </c>
       <c r="L113">
-        <v>2011</v>
+        <v>2024</v>
       </c>
       <c r="M113">
         <v>6</v>
@@ -13739,7 +13744,7 @@
         <v>421</v>
       </c>
       <c r="E115" s="1">
-        <v>41238.416666666664</v>
+        <v>45621.416666666664</v>
       </c>
       <c r="F115" t="s">
         <v>422</v>
@@ -13760,7 +13765,7 @@
         <v>250</v>
       </c>
       <c r="L115">
-        <v>2012</v>
+        <v>2024</v>
       </c>
       <c r="M115">
         <v>11</v>
@@ -13786,7 +13791,7 @@
         <v>425</v>
       </c>
       <c r="E116" s="1">
-        <v>41369.8125</v>
+        <v>45387.8125</v>
       </c>
       <c r="F116" t="s">
         <v>426</v>
@@ -13807,7 +13812,7 @@
         <v>19</v>
       </c>
       <c r="L116">
-        <v>2013</v>
+        <v>2024</v>
       </c>
       <c r="M116">
         <v>4</v>
@@ -13833,7 +13838,7 @@
         <v>429</v>
       </c>
       <c r="E117" s="1">
-        <v>41896.354166666664</v>
+        <v>45549.354166666664</v>
       </c>
       <c r="F117" t="s">
         <v>430</v>
@@ -13854,7 +13859,7 @@
         <v>34</v>
       </c>
       <c r="L117">
-        <v>2014</v>
+        <v>2024</v>
       </c>
       <c r="M117">
         <v>9</v>
@@ -13880,7 +13885,7 @@
         <v>433</v>
       </c>
       <c r="E118" s="1">
-        <v>42203.597222222219</v>
+        <v>45491.597222222219</v>
       </c>
       <c r="F118" t="s">
         <v>434</v>
@@ -13901,7 +13906,7 @@
         <v>124</v>
       </c>
       <c r="L118">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="M118">
         <v>7</v>
@@ -13927,7 +13932,7 @@
         <v>437</v>
       </c>
       <c r="E119" s="1">
-        <v>42423.822916666664</v>
+        <v>45345.822916666664</v>
       </c>
       <c r="F119" t="s">
         <v>438</v>
@@ -13948,7 +13953,7 @@
         <v>419</v>
       </c>
       <c r="L119">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M119">
         <v>2</v>
@@ -13974,7 +13979,7 @@
         <v>441</v>
       </c>
       <c r="E120" s="1">
-        <v>43038.479166666664</v>
+        <v>45595.479166666664</v>
       </c>
       <c r="F120" t="s">
         <v>442</v>
@@ -13995,7 +14000,7 @@
         <v>39</v>
       </c>
       <c r="L120">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M120">
         <v>10</v>
@@ -14021,7 +14026,7 @@
         <v>445</v>
       </c>
       <c r="E121" s="1">
-        <v>43266.666666666664</v>
+        <v>45458.666666666664</v>
       </c>
       <c r="F121" t="s">
         <v>446</v>
@@ -14042,7 +14047,7 @@
         <v>448</v>
       </c>
       <c r="L121">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M121">
         <v>6</v>
@@ -14256,7 +14261,7 @@
         <v>411</v>
       </c>
       <c r="E126" s="1">
-        <v>40405.416666666664</v>
+        <v>45519.416666666664</v>
       </c>
       <c r="F126" t="s">
         <v>466</v>
@@ -14277,7 +14282,7 @@
         <v>39</v>
       </c>
       <c r="L126">
-        <v>2010</v>
+        <v>2024</v>
       </c>
       <c r="M126">
         <v>8</v>
@@ -14303,7 +14308,7 @@
         <v>416</v>
       </c>
       <c r="E127" s="1">
-        <v>40808.8125</v>
+        <v>45557.8125</v>
       </c>
       <c r="F127" t="s">
         <v>469</v>
@@ -14324,7 +14329,7 @@
         <v>419</v>
       </c>
       <c r="L127">
-        <v>2011</v>
+        <v>2024</v>
       </c>
       <c r="M127">
         <v>9</v>
@@ -14350,7 +14355,7 @@
         <v>421</v>
       </c>
       <c r="E128" s="1">
-        <v>40978.354166666664</v>
+        <v>45361.354166666664</v>
       </c>
       <c r="F128" t="s">
         <v>472</v>
@@ -14371,7 +14376,7 @@
         <v>114</v>
       </c>
       <c r="L128">
-        <v>2012</v>
+        <v>2024</v>
       </c>
       <c r="M128">
         <v>3</v>
@@ -14397,7 +14402,7 @@
         <v>425</v>
       </c>
       <c r="E129" s="1">
-        <v>41613.666666666664</v>
+        <v>45631.666666666664</v>
       </c>
       <c r="F129" t="s">
         <v>475</v>
@@ -14418,7 +14423,7 @@
         <v>79</v>
       </c>
       <c r="L129">
-        <v>2013</v>
+        <v>2024</v>
       </c>
       <c r="M129">
         <v>12</v>
@@ -14444,7 +14449,7 @@
         <v>429</v>
       </c>
       <c r="E130" s="1">
-        <v>41840.479166666664</v>
+        <v>45493.479166666664</v>
       </c>
       <c r="F130" t="s">
         <v>478</v>
@@ -14465,7 +14470,7 @@
         <v>60</v>
       </c>
       <c r="L130">
-        <v>2014</v>
+        <v>2024</v>
       </c>
       <c r="M130">
         <v>7</v>
@@ -14491,7 +14496,7 @@
         <v>433</v>
       </c>
       <c r="E131" s="1">
-        <v>42360.597222222219</v>
+        <v>45648.597222222219</v>
       </c>
       <c r="F131" t="s">
         <v>481</v>
@@ -14512,7 +14517,7 @@
         <v>19</v>
       </c>
       <c r="L131">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="M131">
         <v>12</v>
@@ -14538,7 +14543,7 @@
         <v>437</v>
       </c>
       <c r="E132" s="1">
-        <v>42410.822916666664</v>
+        <v>45332.822916666664</v>
       </c>
       <c r="F132" t="s">
         <v>484</v>
@@ -14559,7 +14564,7 @@
         <v>34</v>
       </c>
       <c r="L132">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M132">
         <v>2</v>
@@ -14585,7 +14590,7 @@
         <v>441</v>
       </c>
       <c r="E133" s="1">
-        <v>42855.479166666664</v>
+        <v>45412.479166666664</v>
       </c>
       <c r="F133" t="s">
         <v>487</v>
@@ -14606,7 +14611,7 @@
         <v>39</v>
       </c>
       <c r="L133">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M133">
         <v>4</v>
@@ -14632,7 +14637,7 @@
         <v>445</v>
       </c>
       <c r="E134" s="1">
-        <v>43358.666666666664</v>
+        <v>45550.666666666664</v>
       </c>
       <c r="F134" t="s">
         <v>490</v>
@@ -14653,7 +14658,7 @@
         <v>79</v>
       </c>
       <c r="L134">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M134">
         <v>9</v>
@@ -14820,7 +14825,7 @@
         <v>403</v>
       </c>
       <c r="E138" s="1">
-        <v>40957.604166666664</v>
+        <v>45340.604166666664</v>
       </c>
       <c r="F138" t="s">
         <v>502</v>
@@ -14841,7 +14846,7 @@
         <v>19</v>
       </c>
       <c r="L138">
-        <v>2012</v>
+        <v>2024</v>
       </c>
       <c r="M138">
         <v>2</v>
@@ -14867,7 +14872,7 @@
         <v>407</v>
       </c>
       <c r="E139" s="1">
-        <v>43409.90625</v>
+        <v>45601.90625</v>
       </c>
       <c r="F139" t="s">
         <v>505</v>
@@ -14888,7 +14893,7 @@
         <v>175</v>
       </c>
       <c r="L139">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M139">
         <v>11</v>
@@ -14914,7 +14919,7 @@
         <v>411</v>
       </c>
       <c r="E140" s="1">
-        <v>42259.555555555555</v>
+        <v>45547.555555555555</v>
       </c>
       <c r="F140" t="s">
         <v>508</v>
@@ -14935,7 +14940,7 @@
         <v>43</v>
       </c>
       <c r="L140">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="M140">
         <v>9</v>
@@ -14961,7 +14966,7 @@
         <v>416</v>
       </c>
       <c r="E141" s="1">
-        <v>42581.756944444445</v>
+        <v>45503.756944444445</v>
       </c>
       <c r="F141" t="s">
         <v>511</v>
@@ -14982,7 +14987,7 @@
         <v>461</v>
       </c>
       <c r="L141">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M141">
         <v>7</v>
@@ -15008,7 +15013,7 @@
         <v>421</v>
       </c>
       <c r="E142" s="1">
-        <v>41384.4375</v>
+        <v>45402.4375</v>
       </c>
       <c r="F142" t="s">
         <v>514</v>
@@ -15029,7 +15034,7 @@
         <v>99</v>
       </c>
       <c r="L142">
-        <v>2013</v>
+        <v>2024</v>
       </c>
       <c r="M142">
         <v>4</v>
@@ -15055,7 +15060,7 @@
         <v>425</v>
       </c>
       <c r="E143" s="1">
-        <v>43077.802083333336</v>
+        <v>45634.802083333336</v>
       </c>
       <c r="F143" t="s">
         <v>517</v>
@@ -15076,7 +15081,7 @@
         <v>79</v>
       </c>
       <c r="L143">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M143">
         <v>12</v>
@@ -15102,7 +15107,7 @@
         <v>429</v>
       </c>
       <c r="E144" s="1">
-        <v>41793.347222222219</v>
+        <v>45446.347222222219</v>
       </c>
       <c r="F144" t="s">
         <v>520</v>
@@ -15123,7 +15128,7 @@
         <v>34</v>
       </c>
       <c r="L144">
-        <v>2014</v>
+        <v>2024</v>
       </c>
       <c r="M144">
         <v>6</v>
@@ -15196,7 +15201,7 @@
         <v>437</v>
       </c>
       <c r="E146" s="1">
-        <v>42729.8125</v>
+        <v>45651.8125</v>
       </c>
       <c r="F146" t="s">
         <v>527</v>
@@ -15217,7 +15222,7 @@
         <v>419</v>
       </c>
       <c r="L146">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M146">
         <v>12</v>
@@ -15243,7 +15248,7 @@
         <v>441</v>
       </c>
       <c r="E147" s="1">
-        <v>43169.40625</v>
+        <v>45361.40625</v>
       </c>
       <c r="F147" t="s">
         <v>530</v>
@@ -15264,7 +15269,7 @@
         <v>43</v>
       </c>
       <c r="L147">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M147">
         <v>3</v>
@@ -15337,7 +15342,7 @@
         <v>536</v>
       </c>
       <c r="E149" s="1">
-        <v>40783.78125</v>
+        <v>45532.78125</v>
       </c>
       <c r="F149" t="s">
         <v>537</v>
@@ -15358,7 +15363,7 @@
         <v>79</v>
       </c>
       <c r="L149">
-        <v>2011</v>
+        <v>2024</v>
       </c>
       <c r="M149">
         <v>8</v>
@@ -15384,7 +15389,7 @@
         <v>540</v>
       </c>
       <c r="E150" s="1">
-        <v>43040.645833333336</v>
+        <v>45597.645833333336</v>
       </c>
       <c r="F150" t="s">
         <v>541</v>
@@ -15405,7 +15410,7 @@
         <v>39</v>
       </c>
       <c r="L150">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M150">
         <v>11</v>
@@ -15525,7 +15530,7 @@
         <v>411</v>
       </c>
       <c r="E153" s="1">
-        <v>40494.847222222219</v>
+        <v>45608.847222222219</v>
       </c>
       <c r="F153" t="s">
         <v>550</v>
@@ -15546,7 +15551,7 @@
         <v>43</v>
       </c>
       <c r="L153">
-        <v>2010</v>
+        <v>2024</v>
       </c>
       <c r="M153">
         <v>11</v>
@@ -15572,7 +15577,7 @@
         <v>416</v>
       </c>
       <c r="E154" s="1">
-        <v>40746.770833333336</v>
+        <v>45495.770833333336</v>
       </c>
       <c r="F154" t="s">
         <v>553</v>
@@ -15593,7 +15598,7 @@
         <v>200</v>
       </c>
       <c r="L154">
-        <v>2011</v>
+        <v>2024</v>
       </c>
       <c r="M154">
         <v>7</v>
@@ -15619,7 +15624,7 @@
         <v>421</v>
       </c>
       <c r="E155" s="1">
-        <v>40998.472222222219</v>
+        <v>45381.472222222219</v>
       </c>
       <c r="F155" t="s">
         <v>556</v>
@@ -15640,7 +15645,7 @@
         <v>250</v>
       </c>
       <c r="L155">
-        <v>2012</v>
+        <v>2024</v>
       </c>
       <c r="M155">
         <v>3</v>
@@ -15666,7 +15671,7 @@
         <v>425</v>
       </c>
       <c r="E156" s="1">
-        <v>41552.694444444445</v>
+        <v>45570.694444444445</v>
       </c>
       <c r="F156" t="s">
         <v>559</v>
@@ -15687,7 +15692,7 @@
         <v>34</v>
       </c>
       <c r="L156">
-        <v>2013</v>
+        <v>2024</v>
       </c>
       <c r="M156">
         <v>10</v>
@@ -15713,7 +15718,7 @@
         <v>429</v>
       </c>
       <c r="E157" s="1">
-        <v>41830.552083333336</v>
+        <v>45483.552083333336</v>
       </c>
       <c r="F157" t="s">
         <v>562</v>
@@ -15734,7 +15739,7 @@
         <v>564</v>
       </c>
       <c r="L157">
-        <v>2014</v>
+        <v>2024</v>
       </c>
       <c r="M157">
         <v>7</v>
@@ -15760,7 +15765,7 @@
         <v>433</v>
       </c>
       <c r="E158" s="1">
-        <v>42356.597222222219</v>
+        <v>45644.597222222219</v>
       </c>
       <c r="F158" t="s">
         <v>566</v>
@@ -15781,7 +15786,7 @@
         <v>19</v>
       </c>
       <c r="L158">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="M158">
         <v>12</v>
@@ -15807,7 +15812,7 @@
         <v>437</v>
       </c>
       <c r="E159" s="1">
-        <v>42410.822916666664</v>
+        <v>45332.822916666664</v>
       </c>
       <c r="F159" t="s">
         <v>569</v>
@@ -15828,7 +15833,7 @@
         <v>24</v>
       </c>
       <c r="L159">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M159">
         <v>2</v>
@@ -15854,7 +15859,7 @@
         <v>441</v>
       </c>
       <c r="E160" s="1">
-        <v>43003.479166666664</v>
+        <v>45560.479166666664</v>
       </c>
       <c r="F160" t="s">
         <v>572</v>
@@ -15875,7 +15880,7 @@
         <v>110</v>
       </c>
       <c r="L160">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M160">
         <v>9</v>
@@ -15901,7 +15906,7 @@
         <v>445</v>
       </c>
       <c r="E161" s="1">
-        <v>43205.666666666664</v>
+        <v>45397.666666666664</v>
       </c>
       <c r="F161" t="s">
         <v>575</v>
@@ -15922,7 +15927,7 @@
         <v>250</v>
       </c>
       <c r="L161">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M161">
         <v>4</v>
@@ -16277,7 +16282,7 @@
         <v>605</v>
       </c>
       <c r="E169" s="1">
-        <v>43242.614583333336</v>
+        <v>45434.614583333336</v>
       </c>
       <c r="F169" t="s">
         <v>606</v>
@@ -16298,7 +16303,7 @@
         <v>608</v>
       </c>
       <c r="L169">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M169">
         <v>5</v>
@@ -16324,7 +16329,7 @@
         <v>610</v>
       </c>
       <c r="E170" s="1">
-        <v>42765.673611111109</v>
+        <v>45321.673611111109</v>
       </c>
       <c r="F170" t="s">
         <v>611</v>
@@ -16345,7 +16350,7 @@
         <v>205</v>
       </c>
       <c r="L170">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M170">
         <v>1</v>
@@ -16371,7 +16376,7 @@
         <v>614</v>
       </c>
       <c r="E171" s="1">
-        <v>42641.822916666664</v>
+        <v>45563.822916666664</v>
       </c>
       <c r="F171" t="s">
         <v>615</v>
@@ -16392,7 +16397,7 @@
         <v>617</v>
       </c>
       <c r="L171">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M171">
         <v>9</v>
@@ -16559,7 +16564,7 @@
         <v>631</v>
       </c>
       <c r="E175" s="1">
-        <v>43411.479166666664</v>
+        <v>45603.479166666664</v>
       </c>
       <c r="F175" t="s">
         <v>632</v>
@@ -16580,7 +16585,7 @@
         <v>617</v>
       </c>
       <c r="L175">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M175">
         <v>11</v>
@@ -16606,7 +16611,7 @@
         <v>635</v>
       </c>
       <c r="E176" s="1">
-        <v>42972.666666666664</v>
+        <v>45529.666666666664</v>
       </c>
       <c r="F176" t="s">
         <v>636</v>
@@ -16627,7 +16632,7 @@
         <v>232</v>
       </c>
       <c r="L176">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M176">
         <v>8</v>
@@ -16700,7 +16705,7 @@
         <v>643</v>
       </c>
       <c r="E178" s="1">
-        <v>42462.847222222219</v>
+        <v>45384.847222222219</v>
       </c>
       <c r="F178" t="s">
         <v>644</v>
@@ -16721,7 +16726,7 @@
         <v>205</v>
       </c>
       <c r="L178">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M178">
         <v>4</v>
@@ -16747,7 +16752,7 @@
         <v>591</v>
       </c>
       <c r="E179" s="1">
-        <v>42295.645833333336</v>
+        <v>45583.645833333336</v>
       </c>
       <c r="F179" t="s">
         <v>647</v>
@@ -16768,7 +16773,7 @@
         <v>617</v>
       </c>
       <c r="L179">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="M179">
         <v>10</v>
@@ -16841,7 +16846,7 @@
         <v>600</v>
       </c>
       <c r="E181" s="1">
-        <v>43254.6875</v>
+        <v>45446.6875</v>
       </c>
       <c r="F181" t="s">
         <v>654</v>
@@ -16862,7 +16867,7 @@
         <v>656</v>
       </c>
       <c r="L181">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M181">
         <v>6</v>
@@ -16935,7 +16940,7 @@
         <v>661</v>
       </c>
       <c r="E183" s="1">
-        <v>42835.614583333336</v>
+        <v>45392.614583333336</v>
       </c>
       <c r="F183" t="s">
         <v>662</v>
@@ -16956,7 +16961,7 @@
         <v>205</v>
       </c>
       <c r="L183">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M183">
         <v>4</v>
@@ -16982,7 +16987,7 @@
         <v>614</v>
       </c>
       <c r="E184" s="1">
-        <v>42702.791666666664</v>
+        <v>45624.791666666664</v>
       </c>
       <c r="F184" t="s">
         <v>665</v>
@@ -17003,7 +17008,7 @@
         <v>617</v>
       </c>
       <c r="L184">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M184">
         <v>11</v>
@@ -17029,7 +17034,7 @@
         <v>668</v>
       </c>
       <c r="E185" s="1">
-        <v>43348.395833333336</v>
+        <v>45540.395833333336</v>
       </c>
       <c r="F185" t="s">
         <v>669</v>
@@ -17050,7 +17055,7 @@
         <v>368</v>
       </c>
       <c r="L185">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M185">
         <v>9</v>
@@ -17170,7 +17175,7 @@
         <v>631</v>
       </c>
       <c r="E188" s="1">
-        <v>42814.479166666664</v>
+        <v>45371.479166666664</v>
       </c>
       <c r="F188" t="s">
         <v>680</v>
@@ -17191,7 +17196,7 @@
         <v>617</v>
       </c>
       <c r="L188">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M188">
         <v>3</v>
@@ -17217,7 +17222,7 @@
         <v>635</v>
       </c>
       <c r="E189" s="1">
-        <v>43449.666666666664</v>
+        <v>45641.666666666664</v>
       </c>
       <c r="F189" t="s">
         <v>683</v>
@@ -17238,7 +17243,7 @@
         <v>205</v>
       </c>
       <c r="L189">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M189">
         <v>12</v>
@@ -17264,7 +17269,7 @@
         <v>639</v>
       </c>
       <c r="E190" s="1">
-        <v>42552.40625</v>
+        <v>45474.40625</v>
       </c>
       <c r="F190" t="s">
         <v>686</v>
@@ -17285,7 +17290,7 @@
         <v>368</v>
       </c>
       <c r="L190">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M190">
         <v>7</v>
@@ -17452,7 +17457,7 @@
         <v>698</v>
       </c>
       <c r="E194" s="1">
-        <v>43317.6875</v>
+        <v>45509.6875</v>
       </c>
       <c r="F194" t="s">
         <v>699</v>
@@ -17473,7 +17478,7 @@
         <v>701</v>
       </c>
       <c r="L194">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M194">
         <v>8</v>
@@ -17499,7 +17504,7 @@
         <v>605</v>
       </c>
       <c r="E195" s="1">
-        <v>42747.5</v>
+        <v>45303.5</v>
       </c>
       <c r="F195" t="s">
         <v>703</v>
@@ -17520,7 +17525,7 @@
         <v>656</v>
       </c>
       <c r="L195">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M195">
         <v>1</v>
@@ -17875,7 +17880,7 @@
         <v>732</v>
       </c>
       <c r="E203" s="1">
-        <v>43136.635416666664</v>
+        <v>45327.635416666664</v>
       </c>
       <c r="F203" t="s">
         <v>733</v>
@@ -17896,7 +17901,7 @@
         <v>205</v>
       </c>
       <c r="L203">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M203">
         <v>2</v>
@@ -18345,7 +18350,7 @@
         <v>732</v>
       </c>
       <c r="E213" s="1">
-        <v>43291.65625</v>
+        <v>45483.65625</v>
       </c>
       <c r="F213" t="s">
         <v>766</v>
@@ -18366,7 +18371,7 @@
         <v>617</v>
       </c>
       <c r="L213">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M213">
         <v>7</v>
@@ -18815,7 +18820,7 @@
         <v>732</v>
       </c>
       <c r="E223" s="1">
-        <v>42904.614583333336</v>
+        <v>45461.614583333336</v>
       </c>
       <c r="F223" t="s">
         <v>796</v>
@@ -18836,7 +18841,7 @@
         <v>656</v>
       </c>
       <c r="L223">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M223">
         <v>6</v>
@@ -19238,7 +19243,7 @@
         <v>732</v>
       </c>
       <c r="E232" s="1">
-        <v>43322.65625</v>
+        <v>45514.65625</v>
       </c>
       <c r="F232" t="s">
         <v>822</v>
@@ -19259,7 +19264,7 @@
         <v>617</v>
       </c>
       <c r="L232">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M232">
         <v>8</v>
@@ -19708,7 +19713,7 @@
         <v>732</v>
       </c>
       <c r="E242" s="1">
-        <v>42873.614583333336</v>
+        <v>45430.614583333336</v>
       </c>
       <c r="F242" t="s">
         <v>851</v>
@@ -19729,7 +19734,7 @@
         <v>205</v>
       </c>
       <c r="L242">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M242">
         <v>5</v>
@@ -20037,7 +20042,7 @@
         <v>873</v>
       </c>
       <c r="E249" s="1">
-        <v>43293.739583333336</v>
+        <v>45485.739583333336</v>
       </c>
       <c r="F249" t="s">
         <v>874</v>
@@ -20058,7 +20063,7 @@
         <v>99</v>
       </c>
       <c r="L249">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M249">
         <v>7</v>
@@ -20272,7 +20277,7 @@
         <v>894</v>
       </c>
       <c r="E254" s="1">
-        <v>43193.59375</v>
+        <v>45385.59375</v>
       </c>
       <c r="F254" t="s">
         <v>895</v>
@@ -20293,7 +20298,7 @@
         <v>110</v>
       </c>
       <c r="L254">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M254">
         <v>4</v>
@@ -20977,7 +20982,7 @@
         <v>902</v>
       </c>
       <c r="E269" s="1">
-        <v>43334.722222222219</v>
+        <v>45526.722222222219</v>
       </c>
       <c r="F269" t="s">
         <v>948</v>
@@ -20998,7 +21003,7 @@
         <v>39</v>
       </c>
       <c r="L269">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M269">
         <v>8</v>
@@ -21635,7 +21640,7 @@
         <v>902</v>
       </c>
       <c r="E283" s="1">
-        <v>43334.722222222219</v>
+        <v>45526.722222222219</v>
       </c>
       <c r="F283" t="s">
         <v>948</v>
@@ -21656,7 +21661,7 @@
         <v>39</v>
       </c>
       <c r="L283">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M283">
         <v>8</v>
@@ -22293,7 +22298,7 @@
         <v>902</v>
       </c>
       <c r="E297" s="1">
-        <v>43334.722222222219</v>
+        <v>45526.722222222219</v>
       </c>
       <c r="F297" t="s">
         <v>948</v>
@@ -22314,7 +22319,7 @@
         <v>39</v>
       </c>
       <c r="L297">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M297">
         <v>8</v>
@@ -22434,7 +22439,7 @@
         <v>650</v>
       </c>
       <c r="E300" s="1">
-        <v>42936.489583333336</v>
+        <v>45493.489583333336</v>
       </c>
       <c r="F300" t="s">
         <v>989</v>
@@ -22455,7 +22460,7 @@
         <v>99</v>
       </c>
       <c r="L300">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M300">
         <v>7</v>
@@ -22857,7 +22862,7 @@
         <v>1024</v>
       </c>
       <c r="E309" s="1">
-        <v>43230.583333333336</v>
+        <v>45422.583333333336</v>
       </c>
       <c r="F309" t="s">
         <v>1025</v>
@@ -22878,7 +22883,7 @@
         <v>110</v>
       </c>
       <c r="L309">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M309">
         <v>5</v>
@@ -23327,7 +23332,7 @@
         <v>1024</v>
       </c>
       <c r="E319" s="1">
-        <v>43330.611111111109</v>
+        <v>45522.611111111109</v>
       </c>
       <c r="F319" t="s">
         <v>1055</v>
@@ -23348,7 +23353,7 @@
         <v>39</v>
       </c>
       <c r="L319">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M319">
         <v>8</v>
@@ -23468,7 +23473,7 @@
         <v>650</v>
       </c>
       <c r="E322" s="1">
-        <v>43070.784722222219</v>
+        <v>45627.784722222219</v>
       </c>
       <c r="F322" t="s">
         <v>1064</v>
@@ -23489,7 +23494,7 @@
         <v>99</v>
       </c>
       <c r="L322">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M322">
         <v>12</v>
@@ -23703,7 +23708,7 @@
         <v>1008</v>
       </c>
       <c r="E327" s="1">
-        <v>43176.614583333336</v>
+        <v>45368.614583333336</v>
       </c>
       <c r="F327" t="s">
         <v>1077</v>
@@ -23724,7 +23729,7 @@
         <v>110</v>
       </c>
       <c r="L327">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M327">
         <v>3</v>
@@ -23891,7 +23896,7 @@
         <v>1024</v>
       </c>
       <c r="E331" s="1">
-        <v>43330.583333333336</v>
+        <v>45522.583333333336</v>
       </c>
       <c r="F331" t="s">
         <v>1025</v>
@@ -23912,7 +23917,7 @@
         <v>39</v>
       </c>
       <c r="L331">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M331">
         <v>8</v>
@@ -24220,7 +24225,7 @@
         <v>1109</v>
       </c>
       <c r="E338" s="1">
-        <v>43047.888888888891</v>
+        <v>45604.888888888891</v>
       </c>
       <c r="F338" t="s">
         <v>1110</v>
@@ -24241,7 +24246,7 @@
         <v>1112</v>
       </c>
       <c r="L338">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M338">
         <v>11</v>
@@ -24361,7 +24366,7 @@
         <v>1121</v>
       </c>
       <c r="E341" s="1">
-        <v>43439.364583333336</v>
+        <v>45631.364583333336</v>
       </c>
       <c r="F341" t="s">
         <v>1122</v>
@@ -24382,7 +24387,7 @@
         <v>1124</v>
       </c>
       <c r="L341">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M341">
         <v>12</v>
@@ -24455,7 +24460,7 @@
         <v>1131</v>
       </c>
       <c r="E343" s="1">
-        <v>42604.631944444445</v>
+        <v>45526.631944444445</v>
       </c>
       <c r="F343" t="s">
         <v>1132</v>
@@ -24476,7 +24481,7 @@
         <v>1134</v>
       </c>
       <c r="L343">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M343">
         <v>8</v>
@@ -24690,7 +24695,7 @@
         <v>421</v>
       </c>
       <c r="E348" s="1">
-        <v>42840.333333333336</v>
+        <v>45397.333333333336</v>
       </c>
       <c r="F348" t="s">
         <v>1152</v>
@@ -24711,7 +24716,7 @@
         <v>1154</v>
       </c>
       <c r="L348">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M348">
         <v>4</v>
@@ -24737,7 +24742,7 @@
         <v>429</v>
       </c>
       <c r="E349" s="1">
-        <v>43348.597222222219</v>
+        <v>45540.597222222219</v>
       </c>
       <c r="F349" t="s">
         <v>1156</v>
@@ -24758,7 +24763,7 @@
         <v>1092</v>
       </c>
       <c r="L349">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M349">
         <v>9</v>
@@ -24831,7 +24836,7 @@
         <v>1163</v>
       </c>
       <c r="E351" s="1">
-        <v>42553.979166666664</v>
+        <v>45475.979166666664</v>
       </c>
       <c r="F351" t="s">
         <v>333</v>
@@ -24852,7 +24857,7 @@
         <v>1102</v>
       </c>
       <c r="L351">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M351">
         <v>7</v>
@@ -24972,7 +24977,7 @@
         <v>1174</v>
       </c>
       <c r="E354" s="1">
-        <v>42339.479166666664</v>
+        <v>45627.479166666664</v>
       </c>
       <c r="F354" t="s">
         <v>575</v>
@@ -24993,7 +24998,7 @@
         <v>1092</v>
       </c>
       <c r="L354">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="M354">
         <v>12</v>
@@ -25066,7 +25071,7 @@
         <v>416</v>
       </c>
       <c r="E356" s="1">
-        <v>43232.597222222219</v>
+        <v>45424.597222222219</v>
       </c>
       <c r="F356" t="s">
         <v>1181</v>
@@ -25087,7 +25092,7 @@
         <v>1097</v>
       </c>
       <c r="L356">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M356">
         <v>5</v>
@@ -25207,7 +25212,7 @@
         <v>1191</v>
       </c>
       <c r="E359" s="1">
-        <v>42763.885416666664</v>
+        <v>45319.885416666664</v>
       </c>
       <c r="F359" t="s">
         <v>1192</v>
@@ -25228,7 +25233,7 @@
         <v>1112</v>
       </c>
       <c r="L359">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M359">
         <v>1</v>
@@ -25254,7 +25259,7 @@
         <v>1195</v>
       </c>
       <c r="E360" s="1">
-        <v>42688.572916666664</v>
+        <v>45610.572916666664</v>
       </c>
       <c r="F360" t="s">
         <v>1196</v>
@@ -25275,7 +25280,7 @@
         <v>1102</v>
       </c>
       <c r="L360">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M360">
         <v>11</v>
@@ -25395,7 +25400,7 @@
         <v>445</v>
       </c>
       <c r="E363" s="1">
-        <v>43319.510416666664</v>
+        <v>45511.510416666664</v>
       </c>
       <c r="F363" t="s">
         <v>1206</v>
@@ -25416,7 +25421,7 @@
         <v>1154</v>
       </c>
       <c r="L363">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M363">
         <v>8</v>
@@ -25536,7 +25541,7 @@
         <v>1216</v>
       </c>
       <c r="E366" s="1">
-        <v>42898.763888888891</v>
+        <v>45455.763888888891</v>
       </c>
       <c r="F366" t="s">
         <v>1217</v>
@@ -25557,7 +25562,7 @@
         <v>1092</v>
       </c>
       <c r="L366">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M366">
         <v>6</v>
@@ -25630,7 +25635,7 @@
         <v>1224</v>
       </c>
       <c r="E368" s="1">
-        <v>42475.618055555555</v>
+        <v>45397.618055555555</v>
       </c>
       <c r="F368" t="s">
         <v>1225</v>
@@ -25651,7 +25656,7 @@
         <v>1102</v>
       </c>
       <c r="L368">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M368">
         <v>4</v>
@@ -25724,7 +25729,7 @@
         <v>403</v>
       </c>
       <c r="E370" s="1">
-        <v>43365.6875</v>
+        <v>45557.6875</v>
       </c>
       <c r="F370" t="s">
         <v>1232</v>
@@ -25745,7 +25750,7 @@
         <v>1092</v>
       </c>
       <c r="L370">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M370">
         <v>9</v>
@@ -25771,7 +25776,7 @@
         <v>1235</v>
       </c>
       <c r="E371" s="1">
-        <v>42316.416666666664</v>
+        <v>45604.416666666664</v>
       </c>
       <c r="F371" t="s">
         <v>1236</v>
@@ -25792,7 +25797,7 @@
         <v>1112</v>
       </c>
       <c r="L371">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="M371">
         <v>11</v>
@@ -25959,7 +25964,7 @@
         <v>1254</v>
       </c>
       <c r="E375" s="1">
-        <v>43028.34375</v>
+        <v>45585.34375</v>
       </c>
       <c r="F375" t="s">
         <v>1255</v>
@@ -25980,7 +25985,7 @@
         <v>1257</v>
       </c>
       <c r="L375">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M375">
         <v>10</v>
@@ -26053,7 +26058,7 @@
         <v>1264</v>
       </c>
       <c r="E377" s="1">
-        <v>43263.854166666664</v>
+        <v>45455.854166666664</v>
       </c>
       <c r="F377" t="s">
         <v>1265</v>
@@ -26074,7 +26079,7 @@
         <v>1267</v>
       </c>
       <c r="L377">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M377">
         <v>6</v>
@@ -26100,7 +26105,7 @@
         <v>1269</v>
       </c>
       <c r="E378" s="1">
-        <v>42437.597222222219</v>
+        <v>45359.597222222219</v>
       </c>
       <c r="F378" t="s">
         <v>1270</v>
@@ -26121,7 +26126,7 @@
         <v>1272</v>
       </c>
       <c r="L378">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M378">
         <v>3</v>
@@ -26288,7 +26293,7 @@
         <v>1289</v>
       </c>
       <c r="E382" s="1">
-        <v>42248.666666666664</v>
+        <v>45536.666666666664</v>
       </c>
       <c r="F382" t="s">
         <v>1290</v>
@@ -26309,7 +26314,7 @@
         <v>1292</v>
       </c>
       <c r="L382">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="M382">
         <v>9</v>
@@ -26382,7 +26387,7 @@
         <v>1299</v>
       </c>
       <c r="E384" s="1">
-        <v>43289.958333333336</v>
+        <v>45481.958333333336</v>
       </c>
       <c r="F384" t="s">
         <v>1300</v>
@@ -26403,7 +26408,7 @@
         <v>1302</v>
       </c>
       <c r="L384">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M384">
         <v>7</v>
@@ -26476,7 +26481,7 @@
         <v>1309</v>
       </c>
       <c r="E386" s="1">
-        <v>42689.489583333336</v>
+        <v>45611.489583333336</v>
       </c>
       <c r="F386" t="s">
         <v>1310</v>
@@ -26497,7 +26502,7 @@
         <v>1312</v>
       </c>
       <c r="L386">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M386">
         <v>11</v>
@@ -26570,7 +26575,7 @@
         <v>1318</v>
       </c>
       <c r="E388" s="1">
-        <v>43097.802083333336</v>
+        <v>45654.802083333336</v>
       </c>
       <c r="F388" t="s">
         <v>1319</v>
@@ -26591,7 +26596,7 @@
         <v>1321</v>
       </c>
       <c r="L388">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M388">
         <v>12</v>
@@ -26711,7 +26716,7 @@
         <v>1333</v>
       </c>
       <c r="E391" s="1">
-        <v>43330.614583333336</v>
+        <v>45522.614583333336</v>
       </c>
       <c r="F391" t="s">
         <v>1334</v>
@@ -26732,7 +26737,7 @@
         <v>1336</v>
       </c>
       <c r="L391">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M391">
         <v>8</v>
@@ -26899,7 +26904,7 @@
         <v>1348</v>
       </c>
       <c r="E395" s="1">
-        <v>43028.34375</v>
+        <v>45585.34375</v>
       </c>
       <c r="F395" t="s">
         <v>1349</v>
@@ -26920,7 +26925,7 @@
         <v>1257</v>
       </c>
       <c r="L395">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M395">
         <v>10</v>
@@ -26993,7 +26998,7 @@
         <v>1356</v>
       </c>
       <c r="E397" s="1">
-        <v>43263.854166666664</v>
+        <v>45455.854166666664</v>
       </c>
       <c r="F397" t="s">
         <v>1357</v>
@@ -27014,7 +27019,7 @@
         <v>1267</v>
       </c>
       <c r="L397">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M397">
         <v>6</v>
@@ -27040,7 +27045,7 @@
         <v>1269</v>
       </c>
       <c r="E398" s="1">
-        <v>42437.597222222219</v>
+        <v>45359.597222222219</v>
       </c>
       <c r="F398" t="s">
         <v>1360</v>
@@ -27061,7 +27066,7 @@
         <v>1272</v>
       </c>
       <c r="L398">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M398">
         <v>3</v>
@@ -27228,7 +27233,7 @@
         <v>1371</v>
       </c>
       <c r="E402" s="1">
-        <v>42248.666666666664</v>
+        <v>45536.666666666664</v>
       </c>
       <c r="F402" t="s">
         <v>1290</v>
@@ -27249,7 +27254,7 @@
         <v>1292</v>
       </c>
       <c r="L402">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="M402">
         <v>9</v>
@@ -27322,7 +27327,7 @@
         <v>1376</v>
       </c>
       <c r="E404" s="1">
-        <v>43289.958333333336</v>
+        <v>45481.958333333336</v>
       </c>
       <c r="F404" t="s">
         <v>1300</v>
@@ -27343,7 +27348,7 @@
         <v>1302</v>
       </c>
       <c r="L404">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M404">
         <v>7</v>
@@ -27416,7 +27421,7 @@
         <v>1377</v>
       </c>
       <c r="E406" s="1">
-        <v>42689.489583333336</v>
+        <v>45611.489583333336</v>
       </c>
       <c r="F406" t="s">
         <v>1310</v>
@@ -27437,7 +27442,7 @@
         <v>1312</v>
       </c>
       <c r="L406">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M406">
         <v>11</v>
@@ -27510,7 +27515,7 @@
         <v>1318</v>
       </c>
       <c r="E408" s="1">
-        <v>43097.802083333336</v>
+        <v>45654.802083333336</v>
       </c>
       <c r="F408" t="s">
         <v>1319</v>
@@ -27531,7 +27536,7 @@
         <v>1321</v>
       </c>
       <c r="L408">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M408">
         <v>12</v>
@@ -27651,7 +27656,7 @@
         <v>1333</v>
       </c>
       <c r="E411" s="1">
-        <v>43330.614583333336</v>
+        <v>45522.614583333336</v>
       </c>
       <c r="F411" t="s">
         <v>1334</v>
@@ -27672,7 +27677,7 @@
         <v>1336</v>
       </c>
       <c r="L411">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M411">
         <v>8</v>
@@ -27698,7 +27703,7 @@
         <v>1386</v>
       </c>
       <c r="E412" s="1">
-        <v>42316.416666666664</v>
+        <v>45604.416666666664</v>
       </c>
       <c r="F412" t="s">
         <v>1236</v>
@@ -27719,7 +27724,7 @@
         <v>39</v>
       </c>
       <c r="L412">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="M412">
         <v>11</v>
@@ -27792,7 +27797,7 @@
         <v>878</v>
       </c>
       <c r="E414" s="1">
-        <v>42896.510416666664</v>
+        <v>45453.510416666664</v>
       </c>
       <c r="F414" t="s">
         <v>1393</v>
@@ -27813,7 +27818,7 @@
         <v>1395</v>
       </c>
       <c r="L414">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M414">
         <v>6</v>
@@ -27933,7 +27938,7 @@
         <v>1406</v>
       </c>
       <c r="E417" s="1">
-        <v>42709.875</v>
+        <v>45631.875</v>
       </c>
       <c r="F417" t="s">
         <v>1407</v>
@@ -27954,7 +27959,7 @@
         <v>1409</v>
       </c>
       <c r="L417">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M417">
         <v>12</v>
@@ -27980,7 +27985,7 @@
         <v>1411</v>
       </c>
       <c r="E418" s="1">
-        <v>43141.979166666664</v>
+        <v>45332.979166666664</v>
       </c>
       <c r="F418" t="s">
         <v>1412</v>
@@ -28001,7 +28006,7 @@
         <v>1414</v>
       </c>
       <c r="L418">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M418">
         <v>2</v>
@@ -28074,7 +28079,7 @@
         <v>1421</v>
       </c>
       <c r="E420" s="1">
-        <v>42238.625</v>
+        <v>45526.625</v>
       </c>
       <c r="F420" t="s">
         <v>1422</v>
@@ -28095,7 +28100,7 @@
         <v>1424</v>
       </c>
       <c r="L420">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="M420">
         <v>8</v>
@@ -28309,7 +28314,7 @@
         <v>1443</v>
       </c>
       <c r="E425" s="1">
-        <v>42505.9375</v>
+        <v>45427.9375</v>
       </c>
       <c r="F425" t="s">
         <v>1444</v>
@@ -28330,7 +28335,7 @@
         <v>1446</v>
       </c>
       <c r="L425">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M425">
         <v>5</v>
@@ -28356,7 +28361,7 @@
         <v>1448</v>
       </c>
       <c r="E426" s="1">
-        <v>43353.552083333336</v>
+        <v>45545.552083333336</v>
       </c>
       <c r="F426" t="s">
         <v>1449</v>
@@ -28377,7 +28382,7 @@
         <v>1282</v>
       </c>
       <c r="L426">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M426">
         <v>9</v>
@@ -28450,7 +28455,7 @@
         <v>1456</v>
       </c>
       <c r="E428" s="1">
-        <v>42934.739583333336</v>
+        <v>45491.739583333336</v>
       </c>
       <c r="F428" t="s">
         <v>1457</v>
@@ -28471,7 +28476,7 @@
         <v>1409</v>
       </c>
       <c r="L428">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M428">
         <v>7</v>
@@ -28497,7 +28502,7 @@
         <v>1460</v>
       </c>
       <c r="E429" s="1">
-        <v>43449.416666666664</v>
+        <v>45641.416666666664</v>
       </c>
       <c r="F429" t="s">
         <v>1461</v>
@@ -28518,7 +28523,7 @@
         <v>1463</v>
       </c>
       <c r="L429">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M429">
         <v>12</v>
@@ -28544,7 +28549,7 @@
         <v>1439</v>
       </c>
       <c r="E430" s="1">
-        <v>42183.885416666664</v>
+        <v>45471.885416666664</v>
       </c>
       <c r="F430" t="s">
         <v>1465</v>
@@ -28565,7 +28570,7 @@
         <v>1467</v>
       </c>
       <c r="L430">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="M430">
         <v>6</v>
@@ -28685,7 +28690,7 @@
         <v>1479</v>
       </c>
       <c r="E433" s="1">
-        <v>42696.40625</v>
+        <v>45618.40625</v>
       </c>
       <c r="F433" t="s">
         <v>1480</v>
@@ -28706,7 +28711,7 @@
         <v>1482</v>
       </c>
       <c r="L433">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M433">
         <v>11</v>
@@ -28779,7 +28784,7 @@
         <v>1488</v>
       </c>
       <c r="E435" s="1">
-        <v>42806.979166666664</v>
+        <v>45363.979166666664</v>
       </c>
       <c r="F435" t="s">
         <v>1489</v>
@@ -28800,7 +28805,7 @@
         <v>191</v>
       </c>
       <c r="L435">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M435">
         <v>3</v>
@@ -28826,7 +28831,7 @@
         <v>985</v>
       </c>
       <c r="E436" s="1">
-        <v>42353.677083333336</v>
+        <v>45641.677083333336</v>
       </c>
       <c r="F436" t="s">
         <v>1492</v>
@@ -28847,7 +28852,7 @@
         <v>250</v>
       </c>
       <c r="L436">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="M436">
         <v>12</v>
@@ -28920,7 +28925,7 @@
         <v>1499</v>
       </c>
       <c r="E438" s="1">
-        <v>43242.864583333336</v>
+        <v>45434.864583333336</v>
       </c>
       <c r="F438" t="s">
         <v>1500</v>
@@ -28941,7 +28946,7 @@
         <v>1502</v>
       </c>
       <c r="L438">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M438">
         <v>5</v>
@@ -28967,7 +28972,7 @@
         <v>1504</v>
       </c>
       <c r="E439" s="1">
-        <v>42561.763888888891</v>
+        <v>45483.763888888891</v>
       </c>
       <c r="F439" t="s">
         <v>1505</v>
@@ -28988,7 +28993,7 @@
         <v>1507</v>
       </c>
       <c r="L439">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M439">
         <v>7</v>
@@ -29108,7 +29113,7 @@
         <v>1519</v>
       </c>
       <c r="E442" s="1">
-        <v>42988.802083333336</v>
+        <v>45545.802083333336</v>
       </c>
       <c r="F442" t="s">
         <v>1520</v>
@@ -29129,7 +29134,7 @@
         <v>39</v>
       </c>
       <c r="L442">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M442">
         <v>9</v>
@@ -29202,7 +29207,7 @@
         <v>1527</v>
       </c>
       <c r="E444" s="1">
-        <v>43439.90625</v>
+        <v>45631.90625</v>
       </c>
       <c r="F444" t="s">
         <v>1528</v>
@@ -29223,7 +29228,7 @@
         <v>99</v>
       </c>
       <c r="L444">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M444">
         <v>12</v>
@@ -29249,7 +29254,7 @@
         <v>650</v>
       </c>
       <c r="E445" s="1">
-        <v>42549.597222222219</v>
+        <v>45471.597222222219</v>
       </c>
       <c r="F445" t="s">
         <v>1531</v>
@@ -29270,7 +29275,7 @@
         <v>110</v>
       </c>
       <c r="L445">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M445">
         <v>6</v>
@@ -29390,7 +29395,7 @@
         <v>1542</v>
       </c>
       <c r="E448" s="1">
-        <v>42957.8125</v>
+        <v>45514.8125</v>
       </c>
       <c r="F448" t="s">
         <v>1543</v>
@@ -29411,7 +29416,7 @@
         <v>1545</v>
       </c>
       <c r="L448">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M448">
         <v>8</v>
@@ -29484,7 +29489,7 @@
         <v>1550</v>
       </c>
       <c r="E450" s="1">
-        <v>42716.416666666664</v>
+        <v>45638.416666666664</v>
       </c>
       <c r="F450" t="s">
         <v>1551</v>
@@ -29505,7 +29510,7 @@
         <v>1553</v>
       </c>
       <c r="L450">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M450">
         <v>12</v>
@@ -29672,7 +29677,7 @@
         <v>981</v>
       </c>
       <c r="E454" s="1">
-        <v>42822.916666666664</v>
+        <v>45379.916666666664</v>
       </c>
       <c r="F454" t="s">
         <v>1567</v>
@@ -29693,7 +29698,7 @@
         <v>39</v>
       </c>
       <c r="L454">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M454">
         <v>3</v>
@@ -29766,7 +29771,7 @@
         <v>1519</v>
       </c>
       <c r="E456" s="1">
-        <v>43261.5625</v>
+        <v>45453.5625</v>
       </c>
       <c r="F456" t="s">
         <v>1574</v>
@@ -29787,7 +29792,7 @@
         <v>110</v>
       </c>
       <c r="L456">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M456">
         <v>6</v>
@@ -29813,7 +29818,7 @@
         <v>1527</v>
       </c>
       <c r="E457" s="1">
-        <v>42726.90625</v>
+        <v>45648.90625</v>
       </c>
       <c r="F457" t="s">
         <v>1577</v>
@@ -29834,7 +29839,7 @@
         <v>99</v>
       </c>
       <c r="L457">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M457">
         <v>12</v>
@@ -29954,7 +29959,7 @@
         <v>981</v>
       </c>
       <c r="E460" s="1">
-        <v>42975.8125</v>
+        <v>45532.8125</v>
       </c>
       <c r="F460" t="s">
         <v>1586</v>
@@ -29975,7 +29980,7 @@
         <v>165</v>
       </c>
       <c r="L460">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M460">
         <v>8</v>
@@ -30142,7 +30147,7 @@
         <v>1527</v>
       </c>
       <c r="E464" s="1">
-        <v>43432.583333333336</v>
+        <v>45624.583333333336</v>
       </c>
       <c r="F464" t="s">
         <v>1600</v>
@@ -30163,7 +30168,7 @@
         <v>1536</v>
       </c>
       <c r="L464">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M464">
         <v>11</v>
@@ -30236,7 +30241,7 @@
         <v>981</v>
       </c>
       <c r="E466" s="1">
-        <v>42661.8125</v>
+        <v>45583.8125</v>
       </c>
       <c r="F466" t="s">
         <v>1606</v>
@@ -30257,7 +30262,7 @@
         <v>99</v>
       </c>
       <c r="L466">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M466">
         <v>10</v>
@@ -30330,7 +30335,7 @@
         <v>1523</v>
       </c>
       <c r="E468" s="1">
-        <v>42853.680555555555</v>
+        <v>45410.680555555555</v>
       </c>
       <c r="F468" t="s">
         <v>1612</v>
@@ -30351,7 +30356,7 @@
         <v>110</v>
       </c>
       <c r="L468">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M468">
         <v>4</v>
@@ -30471,7 +30476,7 @@
         <v>1621</v>
       </c>
       <c r="E471" s="1">
-        <v>42536.9375</v>
+        <v>45458.9375</v>
       </c>
       <c r="F471" t="s">
         <v>1622</v>
@@ -30492,7 +30497,7 @@
         <v>1565</v>
       </c>
       <c r="L471">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M471">
         <v>6</v>
@@ -30565,7 +30570,7 @@
         <v>1629</v>
       </c>
       <c r="E473" s="1">
-        <v>43202.770833333336</v>
+        <v>45394.770833333336</v>
       </c>
       <c r="F473" t="s">
         <v>1560</v>
@@ -30586,7 +30591,7 @@
         <v>124</v>
       </c>
       <c r="L473">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M473">
         <v>4</v>
@@ -30706,7 +30711,7 @@
         <v>1639</v>
       </c>
       <c r="E476" s="1">
-        <v>43091.875</v>
+        <v>45648.875</v>
       </c>
       <c r="F476" t="s">
         <v>1640</v>
@@ -30727,7 +30732,7 @@
         <v>165</v>
       </c>
       <c r="L476">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M476">
         <v>12</v>
@@ -30800,7 +30805,7 @@
         <v>1646</v>
       </c>
       <c r="E478" s="1">
-        <v>42631.822916666664</v>
+        <v>45553.822916666664</v>
       </c>
       <c r="F478" t="s">
         <v>1647</v>
@@ -30821,7 +30826,7 @@
         <v>1545</v>
       </c>
       <c r="L478">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M478">
         <v>9</v>
@@ -30941,7 +30946,7 @@
         <v>1657</v>
       </c>
       <c r="E481" s="1">
-        <v>43340.666666666664</v>
+        <v>45532.666666666664</v>
       </c>
       <c r="F481" t="s">
         <v>1658</v>
@@ -30962,7 +30967,7 @@
         <v>1486</v>
       </c>
       <c r="L481">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M481">
         <v>8</v>
@@ -31176,7 +31181,7 @@
         <v>925</v>
       </c>
       <c r="E486" s="1">
-        <v>43365.53125</v>
+        <v>45557.53125</v>
       </c>
       <c r="F486" t="s">
         <v>1675</v>
@@ -31197,7 +31202,7 @@
         <v>165</v>
       </c>
       <c r="L486">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M486">
         <v>9</v>
@@ -31223,7 +31228,7 @@
         <v>1639</v>
       </c>
       <c r="E487" s="1">
-        <v>42714.885416666664</v>
+        <v>45636.885416666664</v>
       </c>
       <c r="F487" t="s">
         <v>1678</v>
@@ -31244,7 +31249,7 @@
         <v>1536</v>
       </c>
       <c r="L487">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M487">
         <v>12</v>
@@ -31317,7 +31322,7 @@
         <v>1684</v>
       </c>
       <c r="E489" s="1">
-        <v>43054.9375</v>
+        <v>45611.9375</v>
       </c>
       <c r="F489" t="s">
         <v>1685</v>
@@ -31338,7 +31343,7 @@
         <v>1558</v>
       </c>
       <c r="L489">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M489">
         <v>11</v>
@@ -31458,7 +31463,7 @@
         <v>1695</v>
       </c>
       <c r="E492" s="1">
-        <v>43232.729166666664</v>
+        <v>45424.729166666664</v>
       </c>
       <c r="F492" t="s">
         <v>1696</v>
@@ -31479,7 +31484,7 @@
         <v>1545</v>
       </c>
       <c r="L492">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M492">
         <v>5</v>
@@ -31646,7 +31651,7 @@
         <v>1710</v>
       </c>
       <c r="E496" s="1">
-        <v>42969.895833333336</v>
+        <v>45526.895833333336</v>
       </c>
       <c r="F496" t="s">
         <v>1711</v>
@@ -31667,7 +31672,7 @@
         <v>1558</v>
       </c>
       <c r="L496">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M496">
         <v>8</v>
@@ -31740,7 +31745,7 @@
         <v>921</v>
       </c>
       <c r="E498" s="1">
-        <v>42623.802083333336</v>
+        <v>45545.802083333336</v>
       </c>
       <c r="F498" t="s">
         <v>1718</v>
@@ -31761,7 +31766,7 @@
         <v>1720</v>
       </c>
       <c r="L498">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M498">
         <v>9</v>
@@ -31881,7 +31886,7 @@
         <v>1714</v>
       </c>
       <c r="E501" s="1">
-        <v>43044.916666666664</v>
+        <v>45601.916666666664</v>
       </c>
       <c r="F501" t="s">
         <v>1731</v>
@@ -31902,7 +31907,7 @@
         <v>1733</v>
       </c>
       <c r="L501">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M501">
         <v>11</v>
@@ -31975,7 +31980,7 @@
         <v>1738</v>
       </c>
       <c r="E503" s="1">
-        <v>43174.729166666664</v>
+        <v>45366.729166666664</v>
       </c>
       <c r="F503" t="s">
         <v>1739</v>
@@ -31996,7 +32001,7 @@
         <v>1553</v>
       </c>
       <c r="L503">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M503">
         <v>3</v>
@@ -32116,7 +32121,7 @@
         <v>1714</v>
       </c>
       <c r="E506" s="1">
-        <v>42965.8125</v>
+        <v>45522.8125</v>
       </c>
       <c r="F506" t="s">
         <v>1750</v>
@@ -32137,7 +32142,7 @@
         <v>1752</v>
       </c>
       <c r="L506">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M506">
         <v>8</v>
@@ -32210,7 +32215,7 @@
         <v>1710</v>
       </c>
       <c r="E508" s="1">
-        <v>42696.541666666664</v>
+        <v>45618.541666666664</v>
       </c>
       <c r="F508" t="s">
         <v>1757</v>
@@ -32231,7 +32236,7 @@
         <v>1759</v>
       </c>
       <c r="L508">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M508">
         <v>11</v>
@@ -32351,7 +32356,7 @@
         <v>1769</v>
       </c>
       <c r="E511" s="1">
-        <v>43248.770833333336</v>
+        <v>45440.770833333336</v>
       </c>
       <c r="F511" t="s">
         <v>1770</v>
@@ -32372,7 +32377,7 @@
         <v>1772</v>
       </c>
       <c r="L511">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M511">
         <v>5</v>
@@ -32539,7 +32544,7 @@
         <v>1406</v>
       </c>
       <c r="E515" s="1">
-        <v>43436.927083333336</v>
+        <v>45628.927083333336</v>
       </c>
       <c r="F515" t="s">
         <v>1785</v>
@@ -32560,7 +32565,7 @@
         <v>110</v>
       </c>
       <c r="L515">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M515">
         <v>12</v>
@@ -32633,7 +32638,7 @@
         <v>1625</v>
       </c>
       <c r="E517" s="1">
-        <v>42822.854166666664</v>
+        <v>45379.854166666664</v>
       </c>
       <c r="F517" t="s">
         <v>1791</v>
@@ -32654,7 +32659,7 @@
         <v>99</v>
       </c>
       <c r="L517">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M517">
         <v>3</v>
@@ -32821,7 +32826,7 @@
         <v>1806</v>
       </c>
       <c r="E521" s="1">
-        <v>42702.791666666664</v>
+        <v>45624.791666666664</v>
       </c>
       <c r="F521" t="s">
         <v>1807</v>
@@ -32842,7 +32847,7 @@
         <v>110</v>
       </c>
       <c r="L521">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M521">
         <v>11</v>
@@ -32868,7 +32873,7 @@
         <v>1635</v>
       </c>
       <c r="E522" s="1">
-        <v>43317.833333333336</v>
+        <v>45509.833333333336</v>
       </c>
       <c r="F522" t="s">
         <v>1810</v>
@@ -32889,7 +32894,7 @@
         <v>124</v>
       </c>
       <c r="L522">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M522">
         <v>8</v>
@@ -33056,7 +33061,7 @@
         <v>1824</v>
       </c>
       <c r="E526" s="1">
-        <v>42988.84375</v>
+        <v>45545.84375</v>
       </c>
       <c r="F526" t="s">
         <v>1825</v>
@@ -33077,7 +33082,7 @@
         <v>99</v>
       </c>
       <c r="L526">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M526">
         <v>9</v>
@@ -33150,7 +33155,7 @@
         <v>1833</v>
       </c>
       <c r="E528" s="1">
-        <v>42505.8125</v>
+        <v>45427.8125</v>
       </c>
       <c r="F528" t="s">
         <v>1834</v>
@@ -33171,7 +33176,7 @@
         <v>1836</v>
       </c>
       <c r="L528">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M528">
         <v>5</v>
@@ -33197,7 +33202,7 @@
         <v>1838</v>
       </c>
       <c r="E529" s="1">
-        <v>43444.9375</v>
+        <v>45636.9375</v>
       </c>
       <c r="F529" t="s">
         <v>1839</v>
@@ -33218,7 +33223,7 @@
         <v>99</v>
       </c>
       <c r="L529">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M529">
         <v>12</v>
@@ -33338,7 +33343,7 @@
         <v>389</v>
       </c>
       <c r="E532" s="1">
-        <v>43385.833333333336</v>
+        <v>45577.833333333336</v>
       </c>
       <c r="F532" t="s">
         <v>1851</v>
@@ -33359,7 +33364,7 @@
         <v>99</v>
       </c>
       <c r="L532">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M532">
         <v>10</v>
@@ -33479,7 +33484,7 @@
         <v>1824</v>
       </c>
       <c r="E535" s="1">
-        <v>42996.90625</v>
+        <v>45553.90625</v>
       </c>
       <c r="F535" t="s">
         <v>1861</v>
@@ -33500,7 +33505,7 @@
         <v>39</v>
       </c>
       <c r="L535">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M535">
         <v>9</v>
@@ -33573,7 +33578,7 @@
         <v>1639</v>
       </c>
       <c r="E537" s="1">
-        <v>42428.854166666664</v>
+        <v>45350.854166666664</v>
       </c>
       <c r="F537" t="s">
         <v>1868</v>
@@ -33594,7 +33599,7 @@
         <v>99</v>
       </c>
       <c r="L537">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M537">
         <v>2</v>
@@ -33714,7 +33719,7 @@
         <v>1877</v>
       </c>
       <c r="E540" s="1">
-        <v>42197.916666666664</v>
+        <v>45485.916666666664</v>
       </c>
       <c r="F540" t="s">
         <v>1878</v>
@@ -33735,7 +33740,7 @@
         <v>1558</v>
       </c>
       <c r="L540">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="M540">
         <v>7</v>
@@ -33808,7 +33813,7 @@
         <v>1625</v>
       </c>
       <c r="E542" s="1">
-        <v>43296.895833333336</v>
+        <v>45488.895833333336</v>
       </c>
       <c r="F542" t="s">
         <v>1885</v>
@@ -33829,7 +33834,7 @@
         <v>1540</v>
       </c>
       <c r="L542">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M542">
         <v>7</v>
@@ -33996,7 +34001,7 @@
         <v>1738</v>
       </c>
       <c r="E546" s="1">
-        <v>42988.84375</v>
+        <v>45545.84375</v>
       </c>
       <c r="F546" t="s">
         <v>1899</v>
@@ -34017,7 +34022,7 @@
         <v>110</v>
       </c>
       <c r="L546">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M546">
         <v>9</v>
@@ -34090,7 +34095,7 @@
         <v>1714</v>
       </c>
       <c r="E548" s="1">
-        <v>42470.770833333336</v>
+        <v>45392.770833333336</v>
       </c>
       <c r="F548" t="s">
         <v>1906</v>
@@ -34111,7 +34116,7 @@
         <v>1908</v>
       </c>
       <c r="L548">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M548">
         <v>4</v>
@@ -34184,7 +34189,7 @@
         <v>1094</v>
       </c>
       <c r="E550" s="1">
-        <v>42275.9375</v>
+        <v>45563.9375</v>
       </c>
       <c r="F550" t="s">
         <v>1913</v>
@@ -34205,7 +34210,7 @@
         <v>1553</v>
       </c>
       <c r="L550">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="M550">
         <v>9</v>
@@ -34325,7 +34330,7 @@
         <v>661</v>
       </c>
       <c r="E553" s="1">
-        <v>43291.885416666664</v>
+        <v>45483.885416666664</v>
       </c>
       <c r="F553" t="s">
         <v>1923</v>
@@ -34346,7 +34351,7 @@
         <v>99</v>
       </c>
       <c r="L553">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M553">
         <v>7</v>
@@ -34419,7 +34424,7 @@
         <v>1929</v>
       </c>
       <c r="E555" s="1">
-        <v>42870.916666666664</v>
+        <v>45427.916666666664</v>
       </c>
       <c r="F555" t="s">
         <v>1930</v>
@@ -34440,7 +34445,7 @@
         <v>1545</v>
       </c>
       <c r="L555">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M555">
         <v>5</v>
@@ -34513,7 +34518,7 @@
         <v>1937</v>
       </c>
       <c r="E557" s="1">
-        <v>42602.770833333336</v>
+        <v>45524.770833333336</v>
       </c>
       <c r="F557" t="s">
         <v>1938</v>
@@ -34534,7 +34539,7 @@
         <v>99</v>
       </c>
       <c r="L557">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M557">
         <v>8</v>
@@ -34607,7 +34612,7 @@
         <v>1945</v>
       </c>
       <c r="E559" s="1">
-        <v>42183.833333333336</v>
+        <v>45471.833333333336</v>
       </c>
       <c r="F559" t="s">
         <v>1946</v>
@@ -34628,7 +34633,7 @@
         <v>39</v>
       </c>
       <c r="L559">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="M559">
         <v>6</v>
@@ -34701,7 +34706,7 @@
         <v>981</v>
       </c>
       <c r="E561" s="1">
-        <v>43449.84375</v>
+        <v>45641.84375</v>
       </c>
       <c r="F561" t="s">
         <v>1953</v>
@@ -34722,7 +34727,7 @@
         <v>1565</v>
       </c>
       <c r="L561">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M561">
         <v>12</v>
@@ -34889,7 +34894,7 @@
         <v>1813</v>
       </c>
       <c r="E565" s="1">
-        <v>43044.885416666664</v>
+        <v>45601.885416666664</v>
       </c>
       <c r="F565" t="s">
         <v>1966</v>
@@ -34910,7 +34915,7 @@
         <v>1540</v>
       </c>
       <c r="L565">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M565">
         <v>11</v>
@@ -34983,7 +34988,7 @@
         <v>1973</v>
       </c>
       <c r="E567" s="1">
-        <v>42604.822916666664</v>
+        <v>45526.822916666664</v>
       </c>
       <c r="F567" t="s">
         <v>1974</v>
@@ -35004,7 +35009,7 @@
         <v>110</v>
       </c>
       <c r="L567">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M567">
         <v>8</v>
@@ -35077,7 +35082,7 @@
         <v>1981</v>
       </c>
       <c r="E569" s="1">
-        <v>42356.75</v>
+        <v>45644.75</v>
       </c>
       <c r="F569" t="s">
         <v>1982</v>
@@ -35098,7 +35103,7 @@
         <v>1553</v>
       </c>
       <c r="L569">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="M569">
         <v>12</v>
@@ -35218,7 +35223,7 @@
         <v>1993</v>
       </c>
       <c r="E572" s="1">
-        <v>43266.916666666664</v>
+        <v>45458.916666666664</v>
       </c>
       <c r="F572" t="s">
         <v>1994</v>
@@ -35239,7 +35244,7 @@
         <v>99</v>
       </c>
       <c r="L572">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M572">
         <v>6</v>
@@ -35359,7 +35364,7 @@
         <v>2006</v>
       </c>
       <c r="E575" s="1">
-        <v>42835.885416666664</v>
+        <v>45392.885416666664</v>
       </c>
       <c r="F575" t="s">
         <v>2007</v>
@@ -35380,7 +35385,7 @@
         <v>110</v>
       </c>
       <c r="L575">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M575">
         <v>4</v>
@@ -35453,7 +35458,7 @@
         <v>2014</v>
       </c>
       <c r="E577" s="1">
-        <v>42635.833333333336</v>
+        <v>45557.833333333336</v>
       </c>
       <c r="F577" t="s">
         <v>2015</v>
@@ -35474,7 +35479,7 @@
         <v>99</v>
       </c>
       <c r="L577">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M577">
         <v>9</v>
@@ -35547,7 +35552,7 @@
         <v>2022</v>
       </c>
       <c r="E579" s="1">
-        <v>42318.875</v>
+        <v>45606.875</v>
       </c>
       <c r="F579" t="s">
         <v>2023</v>
@@ -35568,7 +35573,7 @@
         <v>1553</v>
       </c>
       <c r="L579">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="M579">
         <v>11</v>
@@ -42503,7 +42508,7 @@
         <v>2459</v>
       </c>
       <c r="E727" s="1">
-        <v>42318.697916666664</v>
+        <v>45606.697916666664</v>
       </c>
       <c r="F727" t="s">
         <v>2481</v>
@@ -42524,7 +42529,7 @@
         <v>2036</v>
       </c>
       <c r="L727">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="M727">
         <v>11</v>
@@ -42550,7 +42555,7 @@
         <v>2459</v>
       </c>
       <c r="E728" s="1">
-        <v>42627.520833333336</v>
+        <v>45549.520833333336</v>
       </c>
       <c r="F728" t="s">
         <v>2484</v>
@@ -42571,7 +42576,7 @@
         <v>2041</v>
       </c>
       <c r="L728">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="M728">
         <v>9</v>
@@ -42597,7 +42602,7 @@
         <v>2459</v>
       </c>
       <c r="E729" s="1">
-        <v>42965.763888888891</v>
+        <v>45522.763888888891</v>
       </c>
       <c r="F729" t="s">
         <v>2487</v>
@@ -42618,7 +42623,7 @@
         <v>2045</v>
       </c>
       <c r="L729">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="M729">
         <v>8</v>
@@ -42644,7 +42649,7 @@
         <v>2459</v>
       </c>
       <c r="E730" s="1">
-        <v>43273.59375</v>
+        <v>45465.59375</v>
       </c>
       <c r="F730" t="s">
         <v>2490</v>
@@ -42665,7 +42670,7 @@
         <v>2036</v>
       </c>
       <c r="L730">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="M730">
         <v>6</v>
@@ -42820,5 +42825,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>